--- a/data/IMACLIM_equivalent/opti_S_equivalent.xlsx
+++ b/data/IMACLIM_equivalent/opti_S_equivalent.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\mpotfer\Stage\MatMat-Trade\data\IMACLIM_equivalent\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Documents\CDD_CIRED_MatMat\matmat_expés\MatMat-Trade\data\IMACLIM_equivalent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9FB29D-9BCE-4E3D-AEC5-A921A421C6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="regions" sheetId="1" r:id="rId1"/>
@@ -192,7 +191,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -549,11 +548,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1089,11 +1088,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1792CC0-F388-467C-8E88-834E759700E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/IMACLIM_equivalent/opti_S_equivalent.xlsx
+++ b/data/IMACLIM_equivalent/opti_S_equivalent.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="regions" sheetId="1" r:id="rId1"/>
@@ -251,7 +251,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -551,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1083,6 +1104,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:N12">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1091,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1836,6 +1862,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:M18">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>